--- a/Stocks/CGPOWER.xlsx
+++ b/Stocks/CGPOWER.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>78.583333333333329</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>84.334094250705732</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>83.760667310509589</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>29.35905109895598</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>1.5499999999999972</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>84.205421081716366</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>0.20659664088267959</v>
       </c>
       <c r="Y67">
         <v>0.26858686067327692</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>79.5</v>
+      </c>
+      <c r="D83">
+        <v>80.45</v>
+      </c>
+      <c r="E83">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="F83">
+        <v>79.75</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>79.866666666666674</v>
+      </c>
+      <c r="H83">
+        <v>80.017861441460937</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J83">
+        <v>81.496628911509646</v>
+      </c>
+      <c r="K83">
+        <v>78.772289411675317</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>44.407375288073261</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>1.0499999999999972</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.33333333333332882</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>80.310952606739974</v>
+      </c>
+      <c r="W83">
+        <v>81.165854465267017</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-0.85490185852704315</v>
+      </c>
+      <c r="Y83">
+        <v>-0.93953150021807064</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="D84">
+        <v>80.45</v>
+      </c>
+      <c r="E84">
+        <v>78.2</v>
+      </c>
+      <c r="F84">
+        <v>78.5</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>79.05</v>
+      </c>
+      <c r="H84">
+        <v>79.533930720730467</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>81.264044708951943</v>
+      </c>
+      <c r="K84">
+        <v>78.645113986858576</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N84">
+        <v>33.242642046773938</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>2.25</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.13333333333333208</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V84">
+        <v>80.032344513395358</v>
+      </c>
+      <c r="W84">
+        <v>80.968383764136121</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-0.93603925074076244</v>
+      </c>
+      <c r="Y84">
+        <v>-0.938833050322609</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>79.599999999999994</v>
+      </c>
+      <c r="D85">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="E85">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="F85">
+        <v>79.5</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>79.266666666666666</v>
+      </c>
+      <c r="H85">
+        <v>79.400298693698574</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>80.960923662518184</v>
+      </c>
+      <c r="K85">
+        <v>78.590644212001109</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>46.654551602945595</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>1.0999999999999943</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>1.5</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.73333333333332951</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>79.950445357488377</v>
+      </c>
+      <c r="W85">
+        <v>80.859614596422333</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-0.90916923893395563</v>
+      </c>
+      <c r="Y85">
+        <v>-0.93290028804487835</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>79.8</v>
+      </c>
+      <c r="D86">
+        <v>81.05</v>
+      </c>
+      <c r="E86">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F86">
+        <v>81</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>80.383333333333326</v>
+      </c>
+      <c r="H86">
+        <v>79.89181601351595</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>80.980718404180806</v>
+      </c>
+      <c r="K86">
+        <v>78.703834387111968</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>61.251147716862612</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.9000000000000057</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>1.9500000000000028</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.97435897435897589</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>80.111915302490161</v>
+      </c>
+      <c r="W86">
+        <v>80.870013515205869</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-0.75809821271570854</v>
+      </c>
+      <c r="Y86">
+        <v>-0.89793987297904443</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>81</v>
+      </c>
+      <c r="D87">
+        <v>82.1</v>
+      </c>
+      <c r="E87">
+        <v>79.75</v>
+      </c>
+      <c r="F87">
+        <v>81.55</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>81.133333333333326</v>
+      </c>
+      <c r="H87">
+        <v>80.512574673424638</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>81.229447647696176</v>
+      </c>
+      <c r="K87">
+        <v>78.936315634420424</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>65.569154783994378</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>2.3499999999999943</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.7659574468085113</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>80.333159102107061</v>
+      </c>
+      <c r="W87">
+        <v>80.920382884449879</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-0.58722378234281791</v>
+      </c>
+      <c r="Y87">
+        <v>-0.8357966548517991</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="D88">
+        <v>81.900000000000006</v>
+      </c>
+      <c r="E88">
+        <v>80.25</v>
+      </c>
+      <c r="F88">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>81.100000000000009</v>
+      </c>
+      <c r="H88">
+        <v>80.80628733671233</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>81.378459281541467</v>
+      </c>
+      <c r="K88">
+        <v>79.228245493438109</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>59.537677337109763</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>0.90000000000000568</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>1.6500000000000057</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.54545454545454697</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>80.458826932552128</v>
+      </c>
+      <c r="W88">
+        <v>80.937391559675817</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-0.47856462712368852</v>
+      </c>
+      <c r="Y88">
+        <v>-0.76435024930617701</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>81.5</v>
+      </c>
+      <c r="D89">
+        <v>86.45</v>
+      </c>
+      <c r="E89">
+        <v>80.8</v>
+      </c>
+      <c r="F89">
+        <v>85.3</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>84.183333333333337</v>
+      </c>
+      <c r="H89">
+        <v>82.494810335022834</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>82.505468330087808</v>
+      </c>
+      <c r="K89">
+        <v>79.577524272674083</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>81.548907781822237</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>5.6500000000000057</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.79646017699114968</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>81.203622789082573</v>
+      </c>
+      <c r="W89">
+        <v>81.260547740440572</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-5.6924951357999021E-2</v>
+      </c>
+      <c r="Y89">
+        <v>-0.62286518971654137</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>85.6</v>
+      </c>
+      <c r="D90">
+        <v>88.55</v>
+      </c>
+      <c r="E90">
+        <v>85.35</v>
+      </c>
+      <c r="F90">
+        <v>87.5</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>87.133333333333326</v>
+      </c>
+      <c r="H90">
+        <v>84.81407183417808</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>83.848697590068298</v>
+      </c>
+      <c r="K90">
+        <v>80.860296656524284</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>86.437781717992507</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>3.2000000000000028</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.67187500000000122</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>82.172296206146797</v>
+      </c>
+      <c r="W90">
+        <v>81.722729389296831</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>0.44956681684996624</v>
+      </c>
+      <c r="Y90">
+        <v>-0.40837878840323982</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>87.9</v>
+      </c>
+      <c r="D91">
+        <v>89.45</v>
+      </c>
+      <c r="E91">
+        <v>86.3</v>
+      </c>
+      <c r="F91">
+        <v>88.85</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>88.2</v>
+      </c>
+      <c r="H91">
+        <v>86.507035917089041</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>85.093431458942007</v>
+      </c>
+      <c r="K91">
+        <v>82.069119621741109</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>88.728578440113978</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>2.5499999999999972</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.8095238095238072</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>83.199635251354977</v>
+      </c>
+      <c r="W91">
+        <v>82.250675360460022</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>0.94895989089495458</v>
+      </c>
+      <c r="Y91">
+        <v>-0.13691105254360092</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>86.65</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>87.5</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>87.9</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>88.25</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>89.4</v>
+      </c>
+      <c r="D92">
+        <v>90.2</v>
+      </c>
+      <c r="E92">
+        <v>86.8</v>
+      </c>
+      <c r="F92">
+        <v>87.1</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>88.033333333333346</v>
+      </c>
+      <c r="H92">
+        <v>87.270184625211186</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>86.228224468066003</v>
+      </c>
+      <c r="K92">
+        <v>83.120426372465303</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N92">
+        <v>69.662231259216853</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>8.8235294117646079E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>83.799691366531135</v>
+      </c>
+      <c r="W92">
+        <v>82.609884593018535</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>1.1898067735126006</v>
+      </c>
+      <c r="Y92">
+        <v>0.12843251266763939</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>87.9</v>
+      </c>
+      <c r="D93">
+        <v>88.5</v>
+      </c>
+      <c r="E93">
+        <v>86.8</v>
+      </c>
+      <c r="F93">
+        <v>87.45</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>87.583333333333329</v>
+      </c>
+      <c r="H93">
+        <v>87.42675897927225</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>86.733063475162453</v>
+      </c>
+      <c r="K93">
+        <v>83.93810940080634</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>71.20891666816172</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.38235294117647328</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>84.36127731014173</v>
+      </c>
+      <c r="W93">
+        <v>82.968411660202349</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>1.392865649939381</v>
+      </c>
+      <c r="Y93">
+        <v>0.38131914012198775</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>87.6</v>
+      </c>
+      <c r="D94">
+        <v>87.7</v>
+      </c>
+      <c r="E94">
+        <v>84.95</v>
+      </c>
+      <c r="F94">
+        <v>85.8</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>86.149999999999991</v>
+      </c>
+      <c r="H94">
+        <v>86.788379489636128</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>86.947938258459686</v>
+      </c>
+      <c r="K94">
+        <v>84.162973978404935</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>54.757949319164588</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>0.84999999999999432</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>2.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.30909090909090703</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>84.582619262427613</v>
+      </c>
+      <c r="W94">
+        <v>83.178158944631804</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>1.4044603177958095</v>
+      </c>
+      <c r="Y94">
+        <v>0.58594737565675215</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>85.9</v>
+      </c>
+      <c r="D95">
+        <v>86.7</v>
+      </c>
+      <c r="E95">
+        <v>85.1</v>
+      </c>
+      <c r="F95">
+        <v>85.4</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>85.733333333333348</v>
+      </c>
+      <c r="H95">
+        <v>86.260856411484738</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>86.892840867690865</v>
+      </c>
+      <c r="K95">
+        <v>84.371201983203832</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>51.175306021823609</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>1.6000000000000085</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.18750000000000611</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>84.708370145131056</v>
+      </c>
+      <c r="W95">
+        <v>83.342739763547968</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>1.3656303815830881</v>
+      </c>
+      <c r="Y95">
+        <v>0.74188397684201934</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>85.9</v>
+      </c>
+      <c r="D96">
+        <v>87.15</v>
+      </c>
+      <c r="E96">
+        <v>84.35</v>
+      </c>
+      <c r="F96">
+        <v>85.65</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>85.716666666666654</v>
+      </c>
+      <c r="H96">
+        <v>85.988761539075696</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>86.949987341537337</v>
+      </c>
+      <c r="K96">
+        <v>84.366490431380754</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>53.549607241229843</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>2.8000000000000114</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.46428571428571647</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>84.853236276649355</v>
+      </c>
+      <c r="W96">
+        <v>83.513647929211075</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>1.3395883474382799</v>
+      </c>
+      <c r="Y96">
+        <v>0.86142485096127142</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>84.8</v>
+      </c>
+      <c r="D97">
+        <v>85.45</v>
+      </c>
+      <c r="E97">
+        <v>82.85</v>
+      </c>
+      <c r="F97">
+        <v>83.5</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>83.933333333333337</v>
+      </c>
+      <c r="H97">
+        <v>84.961047436204524</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>86.616656821195704</v>
+      </c>
+      <c r="K97">
+        <v>84.029492557740582</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>35.166083706410873</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>0.65000000000000568</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>2.6000000000000085</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.25000000000000139</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>84.645046080241755</v>
+      </c>
+      <c r="W97">
+        <v>83.51263697149173</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>1.132409108750025</v>
+      </c>
+      <c r="Y97">
+        <v>0.91562170251902208</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>83.55</v>
+      </c>
+      <c r="D98">
+        <v>84.4</v>
+      </c>
+      <c r="E98">
+        <v>82</v>
+      </c>
+      <c r="F98">
+        <v>82.25</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>82.88333333333334</v>
+      </c>
+      <c r="H98">
+        <v>83.922190384768925</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>86.124066416485547</v>
+      </c>
+      <c r="K98">
+        <v>83.578494211576015</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N98">
+        <v>28.144338360910247</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>0.25</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>2.4000000000000057</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.10416666666666642</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V98">
+        <v>84.276577452512257</v>
+      </c>
+      <c r="W98">
+        <v>83.419108306936792</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>0.85746914557546461</v>
+      </c>
+      <c r="Y98">
+        <v>0.90399119113031057</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>82.7</v>
+      </c>
+      <c r="D99">
+        <v>83.4</v>
+      </c>
+      <c r="E99">
+        <v>81.650000000000006</v>
+      </c>
+      <c r="F99">
+        <v>81.95</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>82.333333333333329</v>
+      </c>
+      <c r="H99">
+        <v>83.127761859051134</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J99">
+        <v>85.5187183239332</v>
+      </c>
+      <c r="K99">
+        <v>83.1499399423369</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N99">
+        <v>26.553714110420241</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>1.75</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.17142857142856979</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V99">
+        <v>83.918642459818059</v>
+      </c>
+      <c r="W99">
+        <v>83.310285469385917</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>0.6083569904321422</v>
+      </c>
+      <c r="Y99">
+        <v>0.84486435099067692</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD99">
+        <f t="shared" si="35"/>
+        <v>83.2</v>
+      </c>
+      <c r="AE99">
+        <f t="shared" si="36"/>
+        <v>82.75</v>
+      </c>
+      <c r="AF99">
+        <f t="shared" si="37"/>
+        <v>82.550000000000011</v>
+      </c>
+      <c r="AG99">
+        <f t="shared" si="38"/>
+        <v>82.300000000000011</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>82.5</v>
+      </c>
+      <c r="D100">
+        <v>83.5</v>
+      </c>
+      <c r="E100">
+        <v>80.849999999999994</v>
+      </c>
+      <c r="F100">
+        <v>81.150000000000006</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>81.833333333333329</v>
+      </c>
+      <c r="H100">
+        <v>82.480547596192224</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>85.070114251948041</v>
+      </c>
+      <c r="K100">
+        <v>82.638842177373149</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N100">
+        <v>22.344296717858224</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>2.6500000000000057</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.11320754716981536</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V100">
+        <v>83.492697465999896</v>
+      </c>
+      <c r="W100">
+        <v>83.150264323505482</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>0.34243314249441426</v>
+      </c>
+      <c r="Y100">
+        <v>0.74437810929142434</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD100">
+        <f t="shared" si="35"/>
+        <v>83.2</v>
+      </c>
+      <c r="AE100">
+        <f t="shared" si="36"/>
+        <v>82.5</v>
+      </c>
+      <c r="AF100">
+        <f t="shared" si="37"/>
+        <v>82.15</v>
+      </c>
+      <c r="AG100">
+        <f t="shared" si="38"/>
+        <v>81.850000000000009</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>81.2</v>
+      </c>
+      <c r="D101">
+        <v>82.35</v>
+      </c>
+      <c r="E101">
+        <v>80.099999999999994</v>
+      </c>
+      <c r="F101">
+        <v>82.25</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>81.566666666666663</v>
+      </c>
+      <c r="H101">
+        <v>82.023607131429443</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>84.46564441818181</v>
+      </c>
+      <c r="K101">
+        <v>82.074655026845775</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>38.972189522117731</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.1500000000000057</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>2.25</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.95555555555555804</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>83.301513240461446</v>
+      </c>
+      <c r="W101">
+        <v>83.083578077319885</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>0.21793516314156136</v>
+      </c>
+      <c r="Y101">
+        <v>0.6390895200614517</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>81.8</v>
+      </c>
+      <c r="D102">
+        <v>82.25</v>
+      </c>
+      <c r="E102">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="F102">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>80.083333333333329</v>
+      </c>
+      <c r="H102">
+        <v>81.053470232381386</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>83.973278991919187</v>
+      </c>
+      <c r="K102">
+        <v>81.358065020880048</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>22.215263564931973</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.30000000000001137</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>8.8235294117650256E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>82.662818895775075</v>
+      </c>
+      <c r="W102">
+        <v>82.792201923444338</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-0.12938302766926313</v>
+      </c>
+      <c r="Y102">
+        <v>0.48539501051530876</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD102">
+        <f t="shared" si="35"/>
+        <v>81.850000000000009</v>
+      </c>
+      <c r="AE102">
+        <f t="shared" si="36"/>
+        <v>80.95</v>
+      </c>
+      <c r="AF102">
+        <f t="shared" si="37"/>
+        <v>80.550000000000011</v>
+      </c>
+      <c r="AG102">
+        <f t="shared" si="38"/>
+        <v>80.150000000000006</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>79.5</v>
+      </c>
+      <c r="D103">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="E103">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="F103">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>78.61666666666666</v>
+      </c>
+      <c r="H103">
+        <v>79.835068449524016</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>83.290328104826031</v>
+      </c>
+      <c r="K103">
+        <v>80.078495016240041</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>24.822066743340816</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>3.75</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>5.3000000000000114</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.70754716981131927</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>82.153154450271217</v>
+      </c>
+      <c r="W103">
+        <v>82.537224003189195</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-0.38406955291797829</v>
+      </c>
+      <c r="Y103">
+        <v>0.31150209782865135</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>79.8</v>
+      </c>
+      <c r="D104">
+        <v>80.25</v>
+      </c>
+      <c r="E104">
+        <v>77.2</v>
+      </c>
+      <c r="F104">
+        <v>77.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>78.316666666666663</v>
+      </c>
+      <c r="H104">
+        <v>79.075867558095339</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>82.614699637086915</v>
+      </c>
+      <c r="K104">
+        <v>79.438829457075585</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>17.889848051922289</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.29999999999999716</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>3.0499999999999972</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>9.8360655737704084E-2</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>81.437284534844878</v>
+      </c>
+      <c r="W104">
+        <v>82.164096299249252</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-0.72681176440437412</v>
+      </c>
+      <c r="Y104">
+        <v>0.10383932538204624</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>79.900000000000006</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>79.100000000000009</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>78.7</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>78.350000000000009</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>78.5</v>
+      </c>
+      <c r="D105">
+        <v>78.650000000000006</v>
+      </c>
+      <c r="E105">
+        <v>76</v>
+      </c>
+      <c r="F105">
+        <v>76.2</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>76.95</v>
+      </c>
+      <c r="H105">
+        <v>78.012933779047671</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>81.733655273289827</v>
+      </c>
+      <c r="K105">
+        <v>78.674645133281004</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>14.365774280010829</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>0.20000000000000284</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>2.6500000000000057</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>7.547169811320846E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>80.631548452561049</v>
+      </c>
+      <c r="W105">
+        <v>81.722311388193745</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-1.0907629356326964</v>
+      </c>
+      <c r="Y105">
+        <v>-0.13508112682090231</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>78.350000000000009</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>77.650000000000006</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>77.350000000000009</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>77.400000000000006</v>
+      </c>
+      <c r="D106">
+        <v>80.05</v>
+      </c>
+      <c r="E106">
+        <v>75.3</v>
+      </c>
+      <c r="F106">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>77.733333333333334</v>
+      </c>
+      <c r="H106">
+        <v>77.87313355619051</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>81.359509657003201</v>
+      </c>
+      <c r="K106">
+        <v>77.92472399255189</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>34.756267920729428</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>2.5499999999999972</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>4.75</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.53684210526315734</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>80.203617921397807</v>
+      </c>
+      <c r="W106">
+        <v>81.435473507586806</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-1.231855586188999</v>
+      </c>
+      <c r="Y106">
+        <v>-0.35443601869452168</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>78.400000000000006</v>
+      </c>
+      <c r="D107">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="E107">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="F107">
+        <v>78.8</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>78.5</v>
+      </c>
+      <c r="H107">
+        <v>78.186566778095255</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J107">
+        <v>80.912951955446928</v>
+      </c>
+      <c r="K107">
+        <v>77.797007549762583</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N107">
+        <v>44.301256944132255</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1.4500000000000028</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.72500000000000142</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>79.987676702721217</v>
+      </c>
+      <c r="W107">
+        <v>81.240253247765565</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-1.2525765450443487</v>
+      </c>
+      <c r="Y107">
+        <v>-0.5340641239644871</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
